--- a/data/trans_orig/P1432-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1004</v>
+        <v>1643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11464</v>
+        <v>11625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009405312242782685</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002119327701691749</v>
+        <v>0.003467855223621277</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.024197168190893</v>
+        <v>0.02453614421584135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4880</v>
+        <v>4765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002792193331908836</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01591274101600389</v>
+        <v>0.01553752137670043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>5312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1663</v>
+        <v>1842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11363</v>
+        <v>13103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006806688216132706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002131242583031421</v>
+        <v>0.002360009155511978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01455957343144103</v>
+        <v>0.01678902451719648</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>469320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>462312</v>
+        <v>462151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472772</v>
+        <v>472133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9905946877572173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.975802831809107</v>
+        <v>0.9754638557841588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9978806722983082</v>
+        <v>0.9965321447763787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -835,7 +835,7 @@
         <v>305824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301800</v>
+        <v>301915</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>306680</v>
@@ -844,7 +844,7 @@
         <v>0.9972078066680912</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9840872589839942</v>
+        <v>0.9844624786232993</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>775145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>769094</v>
+        <v>767354</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>778794</v>
+        <v>778615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9931933117838673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.985440426568559</v>
+        <v>0.9832109754828036</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9978687574169686</v>
+        <v>0.997639990844488</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>4575</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9947</v>
+        <v>10818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0124668343426669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004783625835734192</v>
+        <v>0.004802477226999325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02710959218457934</v>
+        <v>0.02948276516657905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -981,19 +981,19 @@
         <v>4172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10048</v>
+        <v>10282</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01121829318834261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002781783554492467</v>
+        <v>0.002784112949186134</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02701971036525364</v>
+        <v>0.02765058648229042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1002,19 +1002,19 @@
         <v>8746</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4070</v>
+        <v>4162</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16547</v>
+        <v>16045</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01183839739964035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005508272176844027</v>
+        <v>0.00563400121794514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02239781650098914</v>
+        <v>0.02171711228695916</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>362359</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356987</v>
+        <v>356116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365179</v>
+        <v>365172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9875331656573331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9728904078154207</v>
+        <v>0.9705172348334206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9952163741642658</v>
+        <v>0.9951975227730007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -1052,19 +1052,19 @@
         <v>367693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361817</v>
+        <v>361583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370831</v>
+        <v>370830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9887817068116574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9729802896347469</v>
+        <v>0.9723494135177095</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9972182164455076</v>
+        <v>0.9972158870508139</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>704</v>
@@ -1073,19 +1073,19 @@
         <v>730053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>722252</v>
+        <v>722754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734729</v>
+        <v>734637</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9881616026003597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9776021834990107</v>
+        <v>0.9782828877130408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994491727823156</v>
+        <v>0.994365998782055</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>6176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2413</v>
+        <v>2541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13321</v>
+        <v>13562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01138750349137683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004449456000783872</v>
+        <v>0.004684451286683893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.024559385352975</v>
+        <v>0.02500453175885318</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7980</v>
+        <v>9141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01375750250666523</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04755987496560594</v>
+        <v>0.0544794181234991</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1219,19 +1219,19 @@
         <v>8485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3627</v>
+        <v>3699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15945</v>
+        <v>16252</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.011947429135673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005106872378066623</v>
+        <v>0.00520907791331951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02245227021453649</v>
+        <v>0.02288513070119292</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>536213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529068</v>
+        <v>528827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539976</v>
+        <v>539848</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9886124965086232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9754406146470246</v>
+        <v>0.9749954682411471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9955505439992161</v>
+        <v>0.9953155487133164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -1269,7 +1269,7 @@
         <v>165474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159802</v>
+        <v>158641</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>167782</v>
@@ -1278,7 +1278,7 @@
         <v>0.9862424974933348</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.952440125034394</v>
+        <v>0.9455205818765009</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1290,19 +1290,19 @@
         <v>701686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>694226</v>
+        <v>693919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>706544</v>
+        <v>706472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.988052570864327</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9775477297854636</v>
+        <v>0.9771148692988071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948931276219334</v>
+        <v>0.9947909220866805</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>15873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10029</v>
+        <v>9424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25483</v>
+        <v>24869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01281818483303737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008098397444110565</v>
+        <v>0.007610008069325298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02057819419780807</v>
+        <v>0.02008255273612788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1415,19 +1415,19 @@
         <v>5902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2348</v>
+        <v>1808</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12175</v>
+        <v>11940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008262941587398397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00328651093261013</v>
+        <v>0.002531859816771193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.017044562603872</v>
+        <v>0.01671665606230689</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1436,19 +1436,19 @@
         <v>21775</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14035</v>
+        <v>13999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32136</v>
+        <v>31524</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01115183711834166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00718771011220394</v>
+        <v>0.007169370991897028</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01645778797089894</v>
+        <v>0.01614432229706091</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1222461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1212851</v>
+        <v>1213465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1228305</v>
+        <v>1228910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9871818151669626</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.979421805802192</v>
+        <v>0.9799174472638721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9919016025558894</v>
+        <v>0.9923899919306747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>688</v>
@@ -1486,19 +1486,19 @@
         <v>708383</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>702110</v>
+        <v>702345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>711937</v>
+        <v>712477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9917370584126016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.982955437396128</v>
+        <v>0.9832833439376931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9967134890673899</v>
+        <v>0.9974681401832288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1895</v>
@@ -1507,19 +1507,19 @@
         <v>1930845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1920484</v>
+        <v>1921096</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1938585</v>
+        <v>1938621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9888481628816583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9835422120291011</v>
+        <v>0.9838556777029391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928122898877961</v>
+        <v>0.992830629008103</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>4843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1632</v>
+        <v>1845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10580</v>
+        <v>10699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01381595459347329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004655635547988759</v>
+        <v>0.005262167299797628</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03018056444567343</v>
+        <v>0.03052022319920247</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1632,19 +1632,19 @@
         <v>11044</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5570</v>
+        <v>5508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19784</v>
+        <v>19500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01941746653074443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009793641934800881</v>
+        <v>0.00968453581555259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03478513112083184</v>
+        <v>0.03428507531919167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1653,19 +1653,19 @@
         <v>15887</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8190</v>
+        <v>9110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24924</v>
+        <v>25829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01728146703149547</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008909335642056411</v>
+        <v>0.009909493112404067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02711198835233765</v>
+        <v>0.02809621787096944</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>345712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>339975</v>
+        <v>339856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>348923</v>
+        <v>348710</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9861840454065267</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9698194355543265</v>
+        <v>0.9694797768007974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953443644520111</v>
+        <v>0.9947378327002023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>528</v>
@@ -1703,19 +1703,19 @@
         <v>557708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>548968</v>
+        <v>549252</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>563182</v>
+        <v>563244</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9805825334692556</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9652148688791685</v>
+        <v>0.9657149246808082</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9902063580651991</v>
+        <v>0.9903154641844474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>863</v>
@@ -1724,19 +1724,19 @@
         <v>903420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>894383</v>
+        <v>893478</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>911117</v>
+        <v>910197</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9827185329685045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9728880116476631</v>
+        <v>0.9719037821290309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9910906643579438</v>
+        <v>0.9900905068875959</v>
       </c>
     </row>
     <row r="18">
@@ -1841,19 +1841,19 @@
         <v>26407</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16786</v>
+        <v>16712</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38650</v>
+        <v>39477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02114619563314401</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01344180953102742</v>
+        <v>0.01338284807082904</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03095038903368729</v>
+        <v>0.03161322016577454</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1862,19 +1862,19 @@
         <v>26407</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17781</v>
+        <v>17393</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38979</v>
+        <v>38711</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0170699392283928</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.011494218327852</v>
+        <v>0.01124356704000548</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02519725624856872</v>
+        <v>0.02502384579566751</v>
       </c>
     </row>
     <row r="20">
@@ -1904,19 +1904,19 @@
         <v>1222353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1210110</v>
+        <v>1209283</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1231974</v>
+        <v>1232048</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.978853804366856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9690496109663131</v>
+        <v>0.9683867798342256</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.986558190468973</v>
+        <v>0.9866171519291711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1520</v>
@@ -1925,19 +1925,19 @@
         <v>1520553</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1507981</v>
+        <v>1508249</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1529179</v>
+        <v>1529567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9829300607716072</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9748027437514314</v>
+        <v>0.9749761542043327</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9885057816721481</v>
+        <v>0.9887564329599946</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>35923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25655</v>
+        <v>25901</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48425</v>
+        <v>50586</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01098512209890804</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007845003567196453</v>
+        <v>0.007920291971873073</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01480791017620809</v>
+        <v>0.01546896435078529</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2050,19 +2050,19 @@
         <v>50689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38430</v>
+        <v>37002</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66875</v>
+        <v>65795</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01500495378738232</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01137608293095898</v>
+        <v>0.01095338255702497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01979649298302798</v>
+        <v>0.01947686388789694</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2071,19 +2071,19 @@
         <v>86612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68630</v>
+        <v>69541</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105904</v>
+        <v>105735</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01302766851685988</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01032295847167267</v>
+        <v>0.01045999426821809</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01592945434843706</v>
+        <v>0.01590399376361893</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>3234267</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3221765</v>
+        <v>3219604</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3244535</v>
+        <v>3244289</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.989014877901092</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9851920898237921</v>
+        <v>0.9845310356492147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9921549964328037</v>
+        <v>0.9920797080281272</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3248</v>
@@ -2121,19 +2121,19 @@
         <v>3327435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3311249</v>
+        <v>3312329</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3339694</v>
+        <v>3341122</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9849950462126177</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.980203507016972</v>
+        <v>0.9805231361121034</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9886239170690411</v>
+        <v>0.9890466174429753</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6418</v>
@@ -2142,19 +2142,19 @@
         <v>6561702</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6542410</v>
+        <v>6542579</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6579684</v>
+        <v>6578773</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9869723314831401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9840705456515629</v>
+        <v>0.9840960062363804</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9896770415283273</v>
+        <v>0.9895400057317818</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5099</v>
+        <v>4749</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002182193885974724</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01166360068594743</v>
+        <v>0.01086258313748651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2509,19 +2509,19 @@
         <v>3138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9167</v>
+        <v>8298</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009979815923619363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003115363151789501</v>
+        <v>0.003108077470999376</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02915290560649</v>
+        <v>0.026388586524801</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2530,19 +2530,19 @@
         <v>4092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1057</v>
+        <v>1093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9475</v>
+        <v>9607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005444279140463549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001405602936805394</v>
+        <v>0.001453725684237112</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01260502308828475</v>
+        <v>0.01278145728185657</v>
       </c>
     </row>
     <row r="5">
@@ -2559,7 +2559,7 @@
         <v>436257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432112</v>
+        <v>432462</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2568,7 +2568,7 @@
         <v>0.9978178061140253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.988336399314051</v>
+        <v>0.9891374168625134</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         <v>311316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>305287</v>
+        <v>306156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313474</v>
+        <v>313477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9900201840763806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9708470943935114</v>
+        <v>0.9736114134751991</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968846368482105</v>
+        <v>0.9968919225290006</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>683</v>
@@ -2601,19 +2601,19 @@
         <v>747573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742190</v>
+        <v>742058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750608</v>
+        <v>750572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9945557208595365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9873949769117152</v>
+        <v>0.9872185427181434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9985943970631946</v>
+        <v>0.9985462743157629</v>
       </c>
     </row>
     <row r="6">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5170</v>
+        <v>5778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002460295927318076</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01234488927190293</v>
+        <v>0.01379584812464839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6013</v>
+        <v>4888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00136146073099474</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007945762233439518</v>
+        <v>0.006458339044818611</v>
       </c>
     </row>
     <row r="8">
@@ -2768,7 +2768,7 @@
         <v>417767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413627</v>
+        <v>413019</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -2777,7 +2777,7 @@
         <v>0.9975397040726819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9876551107280971</v>
+        <v>0.9862041518753518</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>755778</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>750795</v>
+        <v>751920</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>756808</v>
@@ -2811,7 +2811,7 @@
         <v>0.9986385392690053</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.992054237766561</v>
+        <v>0.9935416609551817</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2906,19 +2906,19 @@
         <v>7468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3053</v>
+        <v>3018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18512</v>
+        <v>16166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01186423562389842</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004850786892746264</v>
+        <v>0.004795382428482888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02941160468174524</v>
+        <v>0.02568359717575341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2927,19 +2927,19 @@
         <v>3013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7991</v>
+        <v>8932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01158189739868736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003601116314984433</v>
+        <v>0.003626928869347325</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03071908143564097</v>
+        <v>0.03433534816768506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2948,19 +2948,19 @@
         <v>10480</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4930</v>
+        <v>5129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19136</v>
+        <v>21505</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01178167145509629</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005541624017028876</v>
+        <v>0.005765870021542379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02151199463117761</v>
+        <v>0.02417500570121675</v>
       </c>
     </row>
     <row r="11">
@@ -2977,19 +2977,19 @@
         <v>621947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610903</v>
+        <v>613249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>626362</v>
+        <v>626397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9881357643761016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9705883953182548</v>
+        <v>0.9743164028242467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9951492131072537</v>
+        <v>0.9952046175715171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -2998,19 +2998,19 @@
         <v>257116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252138</v>
+        <v>251197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259192</v>
+        <v>259186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9884181026013127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9692809185643589</v>
+        <v>0.9656646518323149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963988836850156</v>
+        <v>0.9963730711306527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>826</v>
@@ -3019,19 +3019,19 @@
         <v>879064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>870408</v>
+        <v>868039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>884614</v>
+        <v>884415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9882183285449037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9784880053688221</v>
+        <v>0.9758249942987831</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9944583759829709</v>
+        <v>0.9942341299784576</v>
       </c>
     </row>
     <row r="12">
@@ -3123,19 +3123,19 @@
         <v>10090</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4869</v>
+        <v>5156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18398</v>
+        <v>20351</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008705877695472222</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00420083011169167</v>
+        <v>0.004449038512718272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0158736278501594</v>
+        <v>0.01755896842180567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3144,19 +3144,19 @@
         <v>5126</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2020</v>
+        <v>1972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12674</v>
+        <v>11273</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006703070686682744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002641064794109164</v>
+        <v>0.002578087735857357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0165735932584433</v>
+        <v>0.01474127910247654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3165,19 +3165,19 @@
         <v>15216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8180</v>
+        <v>8139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26081</v>
+        <v>24329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007909721363772625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004252154851468933</v>
+        <v>0.004230795768844119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01355755732146587</v>
+        <v>0.01264684825873928</v>
       </c>
     </row>
     <row r="14">
@@ -3194,19 +3194,19 @@
         <v>1148919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1140611</v>
+        <v>1138658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1154140</v>
+        <v>1153853</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9912941223045277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9841263721498406</v>
+        <v>0.9824410315781943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9957991698883085</v>
+        <v>0.9955509614872817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>705</v>
@@ -3215,19 +3215,19 @@
         <v>759596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>752048</v>
+        <v>753449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>762702</v>
+        <v>762750</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9932969293133173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9834264067415567</v>
+        <v>0.9852587208975234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9973589352058908</v>
+        <v>0.9974219122641427</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1779</v>
@@ -3236,19 +3236,19 @@
         <v>1908515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1897650</v>
+        <v>1899402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915551</v>
+        <v>1915592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9920902786362273</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9864424426785343</v>
+        <v>0.9873531517412608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9957478451485311</v>
+        <v>0.9957692042311559</v>
       </c>
     </row>
     <row r="15">
@@ -3340,19 +3340,19 @@
         <v>3115</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9355</v>
+        <v>8345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006100755852512872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001996872351978625</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01832212494316224</v>
+        <v>0.01634354324727694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3361,19 +3361,19 @@
         <v>21382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13324</v>
+        <v>13666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32092</v>
+        <v>32566</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02812478556328757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01752599076678252</v>
+        <v>0.01797632484120203</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04221249564867816</v>
+        <v>0.04283579021442459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -3382,19 +3382,19 @@
         <v>24497</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15825</v>
+        <v>16067</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36353</v>
+        <v>35662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01927602033530818</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01245255561164856</v>
+        <v>0.01264306456184034</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02860531568965639</v>
+        <v>0.02806194812398694</v>
       </c>
     </row>
     <row r="17">
@@ -3411,19 +3411,19 @@
         <v>507481</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>501241</v>
+        <v>502251</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509576</v>
+        <v>510596</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9938992441474871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9816778750568378</v>
+        <v>0.9836564567527231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9980031276480215</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>682</v>
@@ -3432,19 +3432,19 @@
         <v>738864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>728154</v>
+        <v>727680</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>746922</v>
+        <v>746580</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9718752144367124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.957787504351322</v>
+        <v>0.9571642097855755</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9824740092332175</v>
+        <v>0.982023675158798</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1166</v>
@@ -3453,19 +3453,19 @@
         <v>1246346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1234490</v>
+        <v>1235181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1255018</v>
+        <v>1254776</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9807239796646918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9713946843103435</v>
+        <v>0.9719380518760129</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9875474443883514</v>
+        <v>0.9873569354381596</v>
       </c>
     </row>
     <row r="18">
@@ -3570,19 +3570,19 @@
         <v>25233</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16382</v>
+        <v>16932</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37840</v>
+        <v>37491</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02276827398015492</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0147822735063838</v>
+        <v>0.01527786850352282</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03414384570198133</v>
+        <v>0.03382953149118218</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -3591,19 +3591,19 @@
         <v>25233</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16501</v>
+        <v>16170</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37812</v>
+        <v>37161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01834944468251735</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01199929100305292</v>
+        <v>0.01175884097720511</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02749747386731527</v>
+        <v>0.0270238336751457</v>
       </c>
     </row>
     <row r="20">
@@ -3633,19 +3633,19 @@
         <v>1083010</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1070403</v>
+        <v>1070752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1091861</v>
+        <v>1091311</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9772317260198451</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9658561542980186</v>
+        <v>0.9661704685088178</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9852177264936162</v>
+        <v>0.9847221314964771</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1286</v>
@@ -3654,19 +3654,19 @@
         <v>1349892</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1337313</v>
+        <v>1337964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1358624</v>
+        <v>1358955</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9816505553174827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9725025261326847</v>
+        <v>0.9729761663248543</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9880007089969471</v>
+        <v>0.988241159022795</v>
       </c>
     </row>
     <row r="21">
@@ -3758,19 +3758,19 @@
         <v>22657</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13877</v>
+        <v>13602</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34876</v>
+        <v>34977</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00662121026512831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004055395796061258</v>
+        <v>0.00397507721054844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01019206395635549</v>
+        <v>0.01022139437373704</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -3779,19 +3779,19 @@
         <v>57892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44133</v>
+        <v>43964</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76418</v>
+        <v>75268</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01632675735145835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01244639524275586</v>
+        <v>0.01239897125666285</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02155154764226836</v>
+        <v>0.02122731003589259</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -3800,19 +3800,19 @@
         <v>80549</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61590</v>
+        <v>63638</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100374</v>
+        <v>102154</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01156027313533565</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008839366329357258</v>
+        <v>0.009133292912363663</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01440556602540874</v>
+        <v>0.01466108267808607</v>
       </c>
     </row>
     <row r="23">
@@ -3829,19 +3829,19 @@
         <v>3399253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3387034</v>
+        <v>3386933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3408033</v>
+        <v>3408308</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9933787897348717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9898079360436445</v>
+        <v>0.9897786056262631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9959446042039388</v>
+        <v>0.9960249227894515</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3234</v>
@@ -3850,19 +3850,19 @@
         <v>3487914</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3469388</v>
+        <v>3470538</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3501673</v>
+        <v>3501842</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9836732426485416</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9784484523577314</v>
+        <v>0.9787726899641072</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9875536047572441</v>
+        <v>0.9876010287433371</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6419</v>
@@ -3871,19 +3871,19 @@
         <v>6887167</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6867342</v>
+        <v>6865562</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6906126</v>
+        <v>6904078</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9884397268646643</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9855944339745912</v>
+        <v>0.985338917321914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9911606336706429</v>
+        <v>0.9908667070876364</v>
       </c>
     </row>
     <row r="24">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6450</v>
+        <v>6438</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004298369422844355</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01503256291302217</v>
+        <v>0.01500365105483076</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8747</v>
+        <v>7437</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007123917948186808</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0252047708862974</v>
+        <v>0.02142950417482207</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4259,19 +4259,19 @@
         <v>4317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10788</v>
+        <v>10096</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005561816404233717</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00155710375626087</v>
+        <v>0.001548258662273275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01389976022311898</v>
+        <v>0.01300776775973312</v>
       </c>
     </row>
     <row r="5">
@@ -4288,7 +4288,7 @@
         <v>427248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422642</v>
+        <v>422654</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>429092</v>
@@ -4297,7 +4297,7 @@
         <v>0.9957016305771557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9849674370869779</v>
+        <v>0.9849963489451693</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>344583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>338308</v>
+        <v>339618</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -4318,7 +4318,7 @@
         <v>0.9928760820518132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9747952291137024</v>
+        <v>0.978570495825178</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4330,19 +4330,19 @@
         <v>771830</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>765359</v>
+        <v>766051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774938</v>
+        <v>774945</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9944381835957663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9861002397768814</v>
+        <v>0.9869922322402684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9984428962437392</v>
+        <v>0.9984517413377267</v>
       </c>
     </row>
     <row r="6">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6433</v>
+        <v>5479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004749305595128802</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01705428329215011</v>
+        <v>0.01452511595352921</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4455,19 +4455,19 @@
         <v>4528</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12164</v>
+        <v>12838</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01216431267666184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002801713104262912</v>
+        <v>0.002813751271538414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03267491553265313</v>
+        <v>0.03448647347431171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4476,19 +4476,19 @@
         <v>6320</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2413</v>
+        <v>2210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15433</v>
+        <v>15966</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008432304863307281</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003219656717629831</v>
+        <v>0.002948228243291991</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02059094663289066</v>
+        <v>0.0213019735490769</v>
       </c>
     </row>
     <row r="8">
@@ -4505,7 +4505,7 @@
         <v>375435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370794</v>
+        <v>371748</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -4514,7 +4514,7 @@
         <v>0.9952506944048712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.98294571670785</v>
+        <v>0.9854748840464707</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4526,19 +4526,19 @@
         <v>367745</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360109</v>
+        <v>359435</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371230</v>
+        <v>371226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9878356873233382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9673250844673468</v>
+        <v>0.9655135265256882</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971982868957371</v>
+        <v>0.9971862487284615</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>701</v>
@@ -4547,19 +4547,19 @@
         <v>743180</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734067</v>
+        <v>733534</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747087</v>
+        <v>747290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9915676951366927</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9794090533671094</v>
+        <v>0.9786980264509231</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9967803432823702</v>
+        <v>0.997051771756708</v>
       </c>
     </row>
     <row r="9">
@@ -4651,19 +4651,19 @@
         <v>3398</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10803</v>
+        <v>9166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006510585960011546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001509520260099877</v>
+        <v>0.001489954242991415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.020698934824073</v>
+        <v>0.01756224604689282</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7814</v>
+        <v>7027</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01391974668542416</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04703791633284955</v>
+        <v>0.04230033738260345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4693,19 +4693,19 @@
         <v>5710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1920</v>
+        <v>1828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12687</v>
+        <v>12172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008299488969012218</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002790018468637464</v>
+        <v>0.002657045127076802</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01843888774673447</v>
+        <v>0.01769101846451479</v>
       </c>
     </row>
     <row r="11">
@@ -4722,19 +4722,19 @@
         <v>518516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511111</v>
+        <v>512748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>521126</v>
+        <v>521136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9934894140399885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9793010651759275</v>
+        <v>0.982437753953107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984904797399001</v>
+        <v>0.9985100457570085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -4743,7 +4743,7 @@
         <v>163811</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158309</v>
+        <v>159096</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -4752,7 +4752,7 @@
         <v>0.9860802533145758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9529620836671511</v>
+        <v>0.9576996626173967</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4764,19 +4764,19 @@
         <v>682326</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>675349</v>
+        <v>675864</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686116</v>
+        <v>686208</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9917005110309878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9815611122532655</v>
+        <v>0.9823089815354851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972099815313625</v>
+        <v>0.9973429548729232</v>
       </c>
     </row>
     <row r="12">
@@ -4868,19 +4868,19 @@
         <v>4357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10073</v>
+        <v>9727</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003789815709545563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001479652555832928</v>
+        <v>0.001481444498148156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008761729774783795</v>
+        <v>0.008460989397885321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4889,19 +4889,19 @@
         <v>9196</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3835</v>
+        <v>4018</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17217</v>
+        <v>17573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01113532672406831</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004643264632701799</v>
+        <v>0.004864877162162832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02084645713630599</v>
+        <v>0.02127770910403889</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4910,19 +4910,19 @@
         <v>13553</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7269</v>
+        <v>7359</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22644</v>
+        <v>22263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006860651709866681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003679796622498882</v>
+        <v>0.003725270565467773</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01146233663723128</v>
+        <v>0.01126966228365416</v>
       </c>
     </row>
     <row r="14">
@@ -4939,19 +4939,19 @@
         <v>1145281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1139565</v>
+        <v>1139911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147937</v>
+        <v>1147935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9962101842904545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9912382702252149</v>
+        <v>0.991539010602113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9985203474441668</v>
+        <v>0.9985185555018518</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>790</v>
@@ -4960,19 +4960,19 @@
         <v>816680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>808659</v>
+        <v>808303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>822041</v>
+        <v>821858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9888646732759316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.979153542863694</v>
+        <v>0.9787222908959612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9953567353672983</v>
+        <v>0.9951351228378377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1888</v>
@@ -4981,19 +4981,19 @@
         <v>1961961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1952870</v>
+        <v>1953251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1968245</v>
+        <v>1968155</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9931393482901333</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9885376633627686</v>
+        <v>0.9887303377163459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9963202033775012</v>
+        <v>0.9962747294345323</v>
       </c>
     </row>
     <row r="15">
@@ -5085,19 +5085,19 @@
         <v>6125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2633</v>
+        <v>2573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12198</v>
+        <v>12739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009868075622225487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004242308040280729</v>
+        <v>0.004144721203601217</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01965209996425538</v>
+        <v>0.02052355151305329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5106,19 +5106,19 @@
         <v>7647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3116</v>
+        <v>3347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14848</v>
+        <v>14928</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01035902264393737</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004220527532784575</v>
+        <v>0.004533497555818864</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02011210494629387</v>
+        <v>0.02022046951084232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -5127,19 +5127,19 @@
         <v>13773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8221</v>
+        <v>8015</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23287</v>
+        <v>22011</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01013478061796284</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006049166729000985</v>
+        <v>0.005897655673603934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01713613013273757</v>
+        <v>0.01619679744533842</v>
       </c>
     </row>
     <row r="17">
@@ -5156,19 +5156,19 @@
         <v>614581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>608508</v>
+        <v>607967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>618073</v>
+        <v>618133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9901319243777745</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9803479000357447</v>
+        <v>0.9794764484869465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9957576919597193</v>
+        <v>0.9958552787963988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>692</v>
@@ -5177,19 +5177,19 @@
         <v>730597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>723396</v>
+        <v>723316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>735128</v>
+        <v>734897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9896409773560626</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9798878950537061</v>
+        <v>0.9797795304891579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9957794724672151</v>
+        <v>0.9954665024441811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1282</v>
@@ -5198,19 +5198,19 @@
         <v>1345177</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1335663</v>
+        <v>1336939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1350729</v>
+        <v>1350935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9898652193820372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9828638698672625</v>
+        <v>0.9838032025546622</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.993950833270999</v>
+        <v>0.9941023443263961</v>
       </c>
     </row>
     <row r="18">
@@ -5315,19 +5315,19 @@
         <v>25112</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16184</v>
+        <v>16658</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37649</v>
+        <v>37634</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02320874188023624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01495756354213776</v>
+        <v>0.0153951412064487</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03479498389853905</v>
+        <v>0.03478136953313673</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -5336,19 +5336,19 @@
         <v>25112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15785</v>
+        <v>15191</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37086</v>
+        <v>36665</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01834135681413639</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01152869801983553</v>
+        <v>0.01109487730835247</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02708614825015544</v>
+        <v>0.0267791968221184</v>
       </c>
     </row>
     <row r="20">
@@ -5378,19 +5378,19 @@
         <v>1056913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1044376</v>
+        <v>1044391</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1065841</v>
+        <v>1065367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9767912581197638</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.965205016101461</v>
+        <v>0.9652186304668636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9850424364578623</v>
+        <v>0.9846048587935514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1242</v>
@@ -5399,19 +5399,19 @@
         <v>1344058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1332084</v>
+        <v>1332505</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1353385</v>
+        <v>1353979</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9816586431858636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9729138517498445</v>
+        <v>0.9732208031778815</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9884713019801645</v>
+        <v>0.9889051226916474</v>
       </c>
     </row>
     <row r="21">
@@ -5503,19 +5503,19 @@
         <v>17516</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11076</v>
+        <v>10321</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27653</v>
+        <v>26616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005173494987494256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003271320058618783</v>
+        <v>0.00304839690529621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008167459298510867</v>
+        <v>0.007861208074383686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -5524,19 +5524,19 @@
         <v>51270</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37453</v>
+        <v>37867</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67768</v>
+        <v>68799</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01451738761341353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01060513735205257</v>
+        <v>0.0107222154082601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0191891287498311</v>
+        <v>0.01948098878039701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -5545,19 +5545,19 @@
         <v>68786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53953</v>
+        <v>53349</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88189</v>
+        <v>87106</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009943964179673737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007799702517666282</v>
+        <v>0.00771237812118052</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01274907291860675</v>
+        <v>0.01259238550667149</v>
       </c>
     </row>
     <row r="23">
@@ -5574,19 +5574,19 @@
         <v>3368206</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3358069</v>
+        <v>3359106</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3374646</v>
+        <v>3375401</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9948265050125057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9918325407014891</v>
+        <v>0.9921387919256164</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9967286799413813</v>
+        <v>0.9969516030947038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3282</v>
@@ -5595,19 +5595,19 @@
         <v>3480326</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3463828</v>
+        <v>3462797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3494143</v>
+        <v>3493729</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9854826123865865</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9808108712501684</v>
+        <v>0.9805190112196029</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9893948626479473</v>
+        <v>0.9892777845917399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6487</v>
@@ -5616,19 +5616,19 @@
         <v>6848532</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6829129</v>
+        <v>6830212</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6863365</v>
+        <v>6863969</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9900560358203263</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9872509270813932</v>
+        <v>0.9874076144933285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9922002974823336</v>
+        <v>0.9922876218788191</v>
       </c>
     </row>
     <row r="24">
